--- a/Assets/StreamingAssets/新劳模信息/（全国）省部级以上劳模名单.xlsx
+++ b/Assets/StreamingAssets/新劳模信息/（全国）省部级以上劳模名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="13140"/>
+    <workbookView windowWidth="25500" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="458">
   <si>
     <t>级别</t>
   </si>
@@ -135,97 +135,100 @@
     <t>西安陕鼓动力股份有限公司系统服务事业部</t>
   </si>
   <si>
+    <t>李永军。</t>
+  </si>
+  <si>
+    <t>1973/2/16</t>
+  </si>
+  <si>
+    <t>焊工</t>
+  </si>
+  <si>
+    <t>中车西安车辆有限公司</t>
+  </si>
+  <si>
+    <t>李道本</t>
+  </si>
+  <si>
+    <t>1939/10/25</t>
+  </si>
+  <si>
+    <t>厂长</t>
+  </si>
+  <si>
+    <t>杨烈光</t>
+  </si>
+  <si>
+    <t>1936/11/8</t>
+  </si>
+  <si>
+    <t>西安市轻纺建材国有资产管理公司</t>
+  </si>
+  <si>
+    <t>全国先进科技工作者</t>
+  </si>
+  <si>
+    <t>王仪田</t>
+  </si>
+  <si>
+    <t>1965/11/17</t>
+  </si>
+  <si>
+    <t>技术总监</t>
+  </si>
+  <si>
+    <t>王允杰</t>
+  </si>
+  <si>
+    <t>1956/3/24</t>
+  </si>
+  <si>
+    <t>总经理</t>
+  </si>
+  <si>
+    <t>陕西陕钢物业资产管理公司</t>
+  </si>
+  <si>
+    <t>赵进选</t>
+  </si>
+  <si>
+    <t>1954/4/7</t>
+  </si>
+  <si>
+    <t>寇禄七</t>
+  </si>
+  <si>
+    <t>1940/11/3</t>
+  </si>
+  <si>
+    <t>西安市市政设施管理局</t>
+  </si>
+  <si>
+    <t>行动不能自理</t>
+  </si>
+  <si>
+    <t>张秋虎</t>
+  </si>
+  <si>
+    <t>1948/7/7</t>
+  </si>
+  <si>
+    <t>西安市市政道桥有限公司</t>
+  </si>
+  <si>
+    <t>李俭</t>
+  </si>
+  <si>
+    <t>1935/12/27</t>
+  </si>
+  <si>
+    <t>主任</t>
+  </si>
+  <si>
+    <t>西安市杨家村军队离退休干部休养所</t>
+  </si>
+  <si>
     <t>李永军</t>
-  </si>
-  <si>
-    <t>1973/2/16</t>
-  </si>
-  <si>
-    <t>焊工</t>
-  </si>
-  <si>
-    <t>中车西安车辆有限公司</t>
-  </si>
-  <si>
-    <t>李道本</t>
-  </si>
-  <si>
-    <t>1939/10/25</t>
-  </si>
-  <si>
-    <t>厂长</t>
-  </si>
-  <si>
-    <t>杨烈光</t>
-  </si>
-  <si>
-    <t>1936/11/8</t>
-  </si>
-  <si>
-    <t>西安市轻纺建材国有资产管理公司</t>
-  </si>
-  <si>
-    <t>全国先进科技工作者</t>
-  </si>
-  <si>
-    <t>王仪田</t>
-  </si>
-  <si>
-    <t>1965/11/17</t>
-  </si>
-  <si>
-    <t>技术总监</t>
-  </si>
-  <si>
-    <t>王允杰</t>
-  </si>
-  <si>
-    <t>1956/3/24</t>
-  </si>
-  <si>
-    <t>总经理</t>
-  </si>
-  <si>
-    <t>陕西陕钢物业资产管理公司</t>
-  </si>
-  <si>
-    <t>赵进选</t>
-  </si>
-  <si>
-    <t>1954/4/7</t>
-  </si>
-  <si>
-    <t>寇禄七</t>
-  </si>
-  <si>
-    <t>1940/11/3</t>
-  </si>
-  <si>
-    <t>西安市市政设施管理局</t>
-  </si>
-  <si>
-    <t>行动不能自理</t>
-  </si>
-  <si>
-    <t>张秋虎</t>
-  </si>
-  <si>
-    <t>1948/7/7</t>
-  </si>
-  <si>
-    <t>西安市市政道桥有限公司</t>
-  </si>
-  <si>
-    <t>李俭</t>
-  </si>
-  <si>
-    <t>1935/12/27</t>
-  </si>
-  <si>
-    <t>主任</t>
-  </si>
-  <si>
-    <t>西安市杨家村军队离退休干部休养所</t>
   </si>
   <si>
     <t>1962/1/12</t>
@@ -1394,10 +1397,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1413,11 +1416,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1429,7 +1431,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1442,16 +1444,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1465,9 +1459,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1482,15 +1475,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1504,8 +1505,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1521,16 +1538,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1542,20 +1559,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1563,6 +1566,150 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1578,163 +1725,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,6 +1747,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1757,15 +1760,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1784,6 +1778,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1795,15 +1813,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1834,17 +1843,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1852,8 +1855,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1865,10 +1868,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1877,133 +1880,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2368,7 +2371,7 @@
   <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2914,19 +2917,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>17</v>
@@ -2947,19 +2950,19 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>33</v>
@@ -2980,19 +2983,19 @@
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>17</v>
@@ -3013,19 +3016,19 @@
         <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>33</v>
@@ -3046,19 +3049,19 @@
         <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>17</v>
@@ -3079,19 +3082,19 @@
         <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>33</v>
@@ -3112,19 +3115,19 @@
         <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>33</v>
@@ -3145,19 +3148,19 @@
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>33</v>
@@ -3178,19 +3181,19 @@
         <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>33</v>
@@ -3211,19 +3214,19 @@
         <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>33</v>
@@ -3235,7 +3238,7 @@
         <v>2007</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K26" s="2"/>
     </row>
@@ -3244,19 +3247,19 @@
         <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>33</v>
@@ -3277,19 +3280,19 @@
         <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>17</v>
@@ -3310,19 +3313,19 @@
         <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>33</v>
@@ -3343,19 +3346,19 @@
         <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>33</v>
@@ -3376,19 +3379,19 @@
         <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>33</v>
@@ -3409,25 +3412,25 @@
         <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I32" s="2">
         <v>2003</v>
@@ -3442,19 +3445,19 @@
         <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>33</v>
@@ -3475,19 +3478,19 @@
         <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>33</v>
@@ -3508,19 +3511,19 @@
         <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>17</v>
@@ -3541,19 +3544,19 @@
         <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>33</v>
@@ -3574,19 +3577,19 @@
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>33</v>
@@ -3607,19 +3610,19 @@
         <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>33</v>
@@ -3640,19 +3643,19 @@
         <v>11</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>33</v>
@@ -3673,19 +3676,19 @@
         <v>11</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>33</v>
@@ -3706,19 +3709,19 @@
         <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>33</v>
@@ -3739,19 +3742,19 @@
         <v>11</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>17</v>
@@ -3772,19 +3775,19 @@
         <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>33</v>
@@ -3805,19 +3808,19 @@
         <v>11</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>33</v>
@@ -3838,19 +3841,19 @@
         <v>11</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>33</v>
@@ -3871,19 +3874,19 @@
         <v>11</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>17</v>
@@ -3904,19 +3907,19 @@
         <v>11</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>17</v>
@@ -3937,19 +3940,19 @@
         <v>11</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>33</v>
@@ -3970,19 +3973,19 @@
         <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>17</v>
@@ -4003,19 +4006,19 @@
         <v>11</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>17</v>
@@ -4027,7 +4030,7 @@
         <v>2020</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K50" s="2"/>
     </row>
@@ -4036,19 +4039,19 @@
         <v>11</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>17</v>
@@ -4060,7 +4063,7 @@
         <v>1959</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K51" s="2"/>
     </row>
@@ -4069,19 +4072,19 @@
         <v>11</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>17</v>
@@ -4102,19 +4105,19 @@
         <v>11</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>17</v>
@@ -4135,19 +4138,19 @@
         <v>11</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>33</v>
@@ -4168,19 +4171,19 @@
         <v>11</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>17</v>
@@ -4201,19 +4204,19 @@
         <v>11</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>33</v>
@@ -4234,19 +4237,19 @@
         <v>11</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -4267,19 +4270,19 @@
         <v>11</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>17</v>
@@ -4291,7 +4294,7 @@
         <v>2000</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K58" s="2"/>
     </row>
@@ -4300,19 +4303,19 @@
         <v>11</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>33</v>
@@ -4333,19 +4336,19 @@
         <v>11</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>17</v>
@@ -4366,19 +4369,19 @@
         <v>11</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>33</v>
@@ -4399,19 +4402,19 @@
         <v>11</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>17</v>
@@ -4432,19 +4435,19 @@
         <v>11</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>33</v>
@@ -4465,31 +4468,31 @@
         <v>11</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I64" s="2">
         <v>1960</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K64" s="2"/>
     </row>
@@ -4498,19 +4501,19 @@
         <v>11</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>17</v>
@@ -4531,25 +4534,25 @@
         <v>11</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I66" s="2">
         <v>2000</v>
@@ -4564,19 +4567,19 @@
         <v>11</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E67" s="2">
         <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>17</v>
@@ -4597,19 +4600,19 @@
         <v>11</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>33</v>
@@ -4630,19 +4633,19 @@
         <v>11</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>17</v>
@@ -4663,19 +4666,19 @@
         <v>11</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>17</v>
@@ -4696,25 +4699,25 @@
         <v>11</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I71" s="2">
         <v>1992</v>
@@ -4729,19 +4732,19 @@
         <v>11</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>17</v>
@@ -4762,25 +4765,25 @@
         <v>11</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I73" s="2">
         <v>2002</v>
@@ -4795,19 +4798,19 @@
         <v>11</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>17</v>
@@ -4828,19 +4831,19 @@
         <v>11</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>17</v>
@@ -4852,7 +4855,7 @@
         <v>1960</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K75" s="2"/>
     </row>
@@ -4861,25 +4864,25 @@
         <v>11</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I76" s="2">
         <v>2014</v>
@@ -4894,19 +4897,19 @@
         <v>11</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>17</v>
@@ -4927,19 +4930,19 @@
         <v>11</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>17</v>
@@ -4960,19 +4963,19 @@
         <v>11</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>17</v>
@@ -4993,13 +4996,13 @@
         <v>11</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -5026,19 +5029,19 @@
         <v>11</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>17</v>
@@ -5059,19 +5062,19 @@
         <v>11</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>17</v>
@@ -5092,19 +5095,19 @@
         <v>11</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>33</v>
@@ -5116,7 +5119,7 @@
         <v>1985</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K83" s="2"/>
     </row>
@@ -5125,19 +5128,19 @@
         <v>11</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>17</v>
@@ -5158,19 +5161,19 @@
         <v>11</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>17</v>
@@ -5191,19 +5194,19 @@
         <v>11</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>17</v>
@@ -5224,19 +5227,19 @@
         <v>11</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>33</v>
@@ -5257,19 +5260,19 @@
         <v>11</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>33</v>
@@ -5290,19 +5293,19 @@
         <v>11</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>33</v>
@@ -5323,19 +5326,19 @@
         <v>11</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>17</v>
@@ -5347,7 +5350,7 @@
         <v>1956</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K90" s="2"/>
     </row>
@@ -5356,19 +5359,19 @@
         <v>11</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>17</v>
@@ -5389,19 +5392,19 @@
         <v>11</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>33</v>
@@ -5422,19 +5425,19 @@
         <v>11</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>17</v>
@@ -5455,19 +5458,19 @@
         <v>11</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>17</v>
@@ -5488,19 +5491,19 @@
         <v>11</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>17</v>
@@ -5521,19 +5524,19 @@
         <v>11</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -5554,19 +5557,19 @@
         <v>11</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>17</v>
@@ -5578,7 +5581,7 @@
         <v>2005</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K97" s="2"/>
     </row>
@@ -5587,19 +5590,19 @@
         <v>11</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>17</v>
@@ -5620,19 +5623,19 @@
         <v>11</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>17</v>
@@ -5653,19 +5656,19 @@
         <v>11</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>17</v>
@@ -5686,19 +5689,19 @@
         <v>11</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>17</v>
@@ -5710,7 +5713,7 @@
         <v>1960</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K101" s="2"/>
     </row>
@@ -5719,19 +5722,19 @@
         <v>11</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>17</v>
@@ -5752,19 +5755,19 @@
         <v>11</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -5785,19 +5788,19 @@
         <v>11</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>33</v>
@@ -5818,25 +5821,25 @@
         <v>11</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I105" s="2">
         <v>2006</v>
@@ -5851,19 +5854,19 @@
         <v>11</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>17</v>
@@ -5884,19 +5887,19 @@
         <v>11</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>17</v>
@@ -5917,19 +5920,19 @@
         <v>11</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>17</v>
@@ -5950,19 +5953,19 @@
         <v>11</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>17</v>
@@ -5983,19 +5986,19 @@
         <v>11</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>33</v>
@@ -6016,25 +6019,25 @@
         <v>11</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I111" s="2">
         <v>2008</v>
@@ -6049,19 +6052,19 @@
         <v>11</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>17</v>
@@ -6082,25 +6085,25 @@
         <v>11</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I113" s="2">
         <v>2011</v>
@@ -6115,19 +6118,19 @@
         <v>11</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>33</v>
@@ -6148,19 +6151,19 @@
         <v>11</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>33</v>
@@ -6181,19 +6184,19 @@
         <v>11</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>17</v>
@@ -6214,19 +6217,19 @@
         <v>11</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>33</v>
@@ -6247,19 +6250,19 @@
         <v>11</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>17</v>
@@ -6280,19 +6283,19 @@
         <v>11</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>33</v>
@@ -6313,19 +6316,19 @@
         <v>11</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>17</v>
@@ -6346,19 +6349,19 @@
         <v>11</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>17</v>
@@ -6379,19 +6382,19 @@
         <v>11</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>17</v>
@@ -6412,19 +6415,19 @@
         <v>11</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>17</v>
@@ -6445,19 +6448,19 @@
         <v>11</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>33</v>
@@ -6478,19 +6481,19 @@
         <v>11</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>17</v>
@@ -6511,19 +6514,19 @@
         <v>11</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>17</v>
@@ -6544,19 +6547,19 @@
         <v>11</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>17</v>
@@ -6577,19 +6580,19 @@
         <v>11</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>17</v>
